--- a/Documentation/Gantt_Chart.xlsx
+++ b/Documentation/Gantt_Chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\COEP_TY\A_SEM_6\SE-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\COEP_TY\A_SEM_6\SE-2\Project\SEMP-II\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EF5DF7-6E3D-4614-A7B1-8DABCF0DC511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C15ABEF-C417-4E16-A193-545D65741185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F492882C-806F-48FA-9455-1D7CA2D982A5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Task</t>
   </si>
@@ -84,6 +84,21 @@
   </si>
   <si>
     <t>Online Mentorship Platform for College Students</t>
+  </si>
+  <si>
+    <t>Assigned To</t>
+  </si>
+  <si>
+    <t>Apurva &amp; Ashlesha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apurva  </t>
+  </si>
+  <si>
+    <t>Ashlesha</t>
+  </si>
+  <si>
+    <t>Apurva</t>
   </si>
 </sst>
 </file>
@@ -125,64 +140,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -216,8 +179,38 @@
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -225,6 +218,43 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -238,38 +268,62 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -400,7 +454,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:f>Sheet1!$A$3:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -444,7 +498,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$13</c:f>
+              <c:f>Sheet1!$B$3:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>[$-14009]d\ mmmm\ yyyy;@</c:formatCode>
                 <c:ptCount val="12"/>
@@ -515,7 +569,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:f>Sheet1!$A$3:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -559,7 +613,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$13</c:f>
+              <c:f>Sheet1!$D$3:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1330,13 +1384,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1662,10 +1716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E4E8A2-BF32-4D0B-BCF4-FBF5DA80C814}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1674,242 +1728,304 @@
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="22.109375" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8"/>
+      <c r="B1" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D2" s="21" t="s">
         <v>3</v>
       </c>
+      <c r="E2" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B3" s="17">
         <f>DATE(2022, 1, 25)</f>
         <v>44586</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C3" s="15">
         <f>DATE(2022, 1, 28)</f>
         <v>44589</v>
       </c>
-      <c r="D2" s="9">
-        <f>C2-B2+1</f>
+      <c r="D3" s="13">
+        <f>C3-B3+1</f>
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5"/>
+      <c r="E3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="6">
-        <f>C2+1</f>
+      <c r="B4" s="17">
+        <f>C3+1</f>
         <v>44590</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C4" s="15">
         <f>DATE(2022,2,3)</f>
         <v>44595</v>
       </c>
-      <c r="D3" s="9">
-        <f t="shared" ref="D3:D13" si="0">C3-B3+1</f>
+      <c r="D4" s="13">
+        <f t="shared" ref="D4:D14" si="0">C4-B4+1</f>
         <v>6</v>
       </c>
+      <c r="E4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="6">
-        <f t="shared" ref="B4:B13" si="1">C3+1</f>
+      <c r="B5" s="17">
+        <f t="shared" ref="B5:B14" si="1">C4+1</f>
         <v>44596</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C5" s="15">
         <f>DATE(2022,2,11)</f>
         <v>44603</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D5" s="13">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="E5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B6" s="17">
         <f t="shared" si="1"/>
         <v>44604</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C6" s="15">
         <f>DATE(2022,2,17)</f>
         <v>44609</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D6" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="E6" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B7" s="17">
         <f t="shared" si="1"/>
         <v>44610</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C7" s="15">
         <f>DATE(2022,2,21)</f>
         <v>44613</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D7" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="E7" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B8" s="17">
         <f t="shared" si="1"/>
         <v>44614</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C8" s="15">
         <f>DATE(2022,2,24)</f>
         <v>44616</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D8" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="E8" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B9" s="17">
         <f t="shared" si="1"/>
         <v>44617</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C9" s="15">
         <f>DATE(2022, 2, 27)</f>
         <v>44619</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D9" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="E9" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B10" s="17">
         <f t="shared" si="1"/>
         <v>44620</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C10" s="15">
         <f>DATE(2022,3,4)</f>
         <v>44624</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D10" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="E10" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B11" s="17">
         <f t="shared" si="1"/>
         <v>44625</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C11" s="15">
         <f>DATE(2022,3,10)</f>
         <v>44630</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D11" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="E11" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B12" s="17">
         <f t="shared" si="1"/>
         <v>44631</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C12" s="15">
         <f>DATE(2022,3,13)</f>
         <v>44633</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D12" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="E12" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B13" s="17">
         <f t="shared" si="1"/>
         <v>44634</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C13" s="15">
         <f>DATE(2022,3,16)</f>
         <v>44636</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D13" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="E13" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B14" s="18">
         <f t="shared" si="1"/>
         <v>44637</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C14" s="16">
         <f>DATE(2022,3,18)</f>
         <v>44638</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D14" s="14">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="E14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
@@ -1921,6 +2037,9 @@
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
     </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Documentation/Gantt_Chart.xlsx
+++ b/Documentation/Gantt_Chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\COEP_TY\A_SEM_6\SE-2\Project\SEMP-II\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C15ABEF-C417-4E16-A193-545D65741185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960C3CA9-113D-443C-9817-9FB6C693DDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F492882C-806F-48FA-9455-1D7CA2D982A5}"/>
   </bookViews>
@@ -1719,7 +1719,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1966,7 +1966,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="17">
-        <f t="shared" si="1"/>
+        <f>C11+1</f>
         <v>44631</v>
       </c>
       <c r="C12" s="15">
